--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="12525"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="12525" tabRatio="192"/>
   </bookViews>
   <sheets>
     <sheet name="задачи" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">задачи!$B$4:$I$24</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -89,13 +92,43 @@
   </si>
   <si>
     <t>Создать нумератор объектов</t>
+  </si>
+  <si>
+    <t>Ошибки</t>
+  </si>
+  <si>
+    <t>Линия не подсвечивается в списке объектов</t>
+  </si>
+  <si>
+    <t>Линии</t>
+  </si>
+  <si>
+    <t>Убрать ID у сегментов, убрать их из списка</t>
+  </si>
+  <si>
+    <t>Инструменты</t>
+  </si>
+  <si>
+    <t>Инструмент добавления прямоугольников</t>
+  </si>
+  <si>
+    <t>Более поздние объекты должны отображаться наверху</t>
+  </si>
+  <si>
+    <t>Добавить концевые эффекторы</t>
+  </si>
+  <si>
+    <t>Прямоугольники</t>
+  </si>
+  <si>
+    <t>Добавить стиль для прямоугольников</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +162,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -146,23 +185,394 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -170,6 +580,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B4:I24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="B4:I24"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="№" dataDxfId="7"/>
+    <tableColumn id="2" name="Тема" dataDxfId="6"/>
+    <tableColumn id="3" name="Задача" dataDxfId="5"/>
+    <tableColumn id="4" name="Начало" dataDxfId="4"/>
+    <tableColumn id="5" name="Конец" dataDxfId="3"/>
+    <tableColumn id="6" name="Трудоемкость" dataDxfId="2"/>
+    <tableColumn id="7" name="Стоимость" dataDxfId="1"/>
+    <tableColumn id="8" name="Комментарии" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,23 +886,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -485,232 +911,415 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>41955</v>
       </c>
-      <c r="F5" s="4">
-        <v>41956</v>
-      </c>
+      <c r="F5" s="5">
+        <v>41956</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="5">
+        <v>41956</v>
+      </c>
+      <c r="F6" s="5">
+        <v>41957</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4">
-        <v>41956</v>
-      </c>
-      <c r="F8" s="4">
-        <v>41956</v>
-      </c>
+      <c r="E8" s="5">
+        <v>41956</v>
+      </c>
+      <c r="F8" s="5">
+        <v>41956</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>41955</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>41955</v>
       </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>41955</v>
       </c>
-      <c r="F10" s="4">
-        <v>41956</v>
-      </c>
+      <c r="F10" s="5">
+        <v>41956</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4">
-        <v>41956</v>
-      </c>
-      <c r="F11" s="4">
-        <v>41956</v>
-      </c>
+      <c r="E11" s="5">
+        <v>41956</v>
+      </c>
+      <c r="F11" s="5">
+        <v>41956</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4">
-        <v>41956</v>
-      </c>
-      <c r="F12" s="4">
-        <v>41956</v>
-      </c>
+      <c r="E12" s="5">
+        <v>41956</v>
+      </c>
+      <c r="F12" s="5">
+        <v>41956</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E13" s="5">
+        <v>41956</v>
+      </c>
+      <c r="F13" s="5">
+        <v>41956</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="4">
-        <v>41956</v>
-      </c>
-      <c r="F15" s="4">
-        <v>41956</v>
-      </c>
+      <c r="E15" s="5">
+        <v>41956</v>
+      </c>
+      <c r="F15" s="5">
+        <v>41956</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4">
-        <v>41956</v>
-      </c>
-      <c r="F16" s="4">
-        <v>41956</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
+      <c r="E16" s="5">
+        <v>41956</v>
+      </c>
+      <c r="F16" s="5">
+        <v>41956</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="4">
-        <v>41956</v>
-      </c>
-      <c r="F17" s="4">
-        <v>41956</v>
-      </c>
+      <c r="E17" s="5">
+        <v>41956</v>
+      </c>
+      <c r="F17" s="5">
+        <v>41956</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="5">
+        <v>41957</v>
+      </c>
+      <c r="F18" s="5">
+        <v>41957</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="5">
+        <v>41957</v>
+      </c>
+      <c r="F19" s="5">
+        <v>41957</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5">
+        <v>41957</v>
+      </c>
+      <c r="F20" s="5">
+        <v>41957</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3">
+        <v>41957</v>
+      </c>
+      <c r="F21" s="3">
+        <v>41957</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <v>20</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="8">
+        <v>41960</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -10,14 +10,14 @@
     <sheet name="задачи" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">задачи!$B$4:$I$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">задачи!$B$4:$I$25</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Добавить стиль для прямоугольников</t>
+  </si>
+  <si>
+    <t>Отобразить своййства объектов</t>
   </si>
 </sst>
 </file>
@@ -583,8 +586,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B4:I24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="B4:I24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B4:I25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="B4:I25"/>
   <tableColumns count="8">
     <tableColumn id="1" name="№" dataDxfId="7"/>
     <tableColumn id="2" name="Тема" dataDxfId="6"/>
@@ -886,7 +889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
@@ -1315,6 +1318,22 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
